--- a/data/mpox_tmrca.xlsx
+++ b/data/mpox_tmrca.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mparedes/Desktop/gitrepos/monkeypox-dynamics-mp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{740CC612-04F0-3742-A8BB-2BD5E29B61CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BC3CF6-C47A-3E4C-A8FB-1311C963B138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{80AA68E8-77EA-CF41-B0DF-EC6E51C47CFA}"/>
   </bookViews>
@@ -501,7 +501,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -608,5 +608,6 @@
     <mergeCell ref="A5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/mpox_tmrca.xlsx
+++ b/data/mpox_tmrca.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mparedes/Desktop/gitrepos/monkeypox-dynamics-mp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BC3CF6-C47A-3E4C-A8FB-1311C963B138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0FF2C8-9891-5045-81D3-CD40158EC3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{80AA68E8-77EA-CF41-B0DF-EC6E51C47CFA}"/>
+    <workbookView xWindow="10440" yWindow="3100" windowWidth="27640" windowHeight="16940" xr2:uid="{80AA68E8-77EA-CF41-B0DF-EC6E51C47CFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Mean</t>
   </si>
@@ -87,6 +87,75 @@
   </si>
   <si>
     <t>With three retrospectively-collected March 2022 sequences from the UK</t>
+  </si>
+  <si>
+    <t>TMRCA</t>
+  </si>
+  <si>
+    <t>MASCOT-Skyline</t>
+  </si>
+  <si>
+    <t>Skyline</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clock rate </t>
+  </si>
+  <si>
+    <t>(5.62e-5 – 6.96e-5)</t>
+  </si>
+  <si>
+    <t>2022-01-29</t>
+  </si>
+  <si>
+    <t>(2021-12-07 – 2022-03-12)_</t>
+  </si>
+  <si>
+    <t>(7.71e-5 –9.10e-5)</t>
+  </si>
+  <si>
+    <t>(5.06e-5 – 6.39e-5)</t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>(5.00e-5 – 6.39e-5)</t>
+  </si>
+  <si>
+    <t>2022-01-23</t>
+  </si>
+  <si>
+    <t>(2021-12-21 – 2022-02-24)</t>
+  </si>
+  <si>
+    <t>(8.64e-5 –1.05e-4)</t>
+  </si>
+  <si>
+    <t>2022-03-18</t>
+  </si>
+  <si>
+    <t>(2022-02-25 – 2022-03-27)</t>
+  </si>
+  <si>
+    <t>Migration Events</t>
+  </si>
+  <si>
+    <t>(131 -218)</t>
+  </si>
+  <si>
+    <t>(124-270)</t>
+  </si>
+  <si>
+    <t>(48-74)</t>
+  </si>
+  <si>
+    <t>(50-66)</t>
+  </si>
+  <si>
+    <t>(58-85)</t>
   </si>
 </sst>
 </file>
@@ -174,16 +243,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,114 +577,263 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1BEB1C-8F9E-AF46-B451-F8D034A78400}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
+      <selection sqref="A1:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="10"/>
+      <c r="G1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1">
+        <v>174.57</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="4">
+        <v>6.2700000000000006E-5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1">
+        <v>178.72</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="4">
+        <v>5.7099999999999999E-5</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3">
+        <v>61.04</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="4">
+        <v>8.4099999999999998E-5</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="11">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="12">
+        <v>5.6400000000000002E-5</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1">
+        <v>59.01</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="4">
+        <v>9.4400000000000004E-5</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A5:D5"/>
+  <mergeCells count="6">
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
